--- a/biology/Botanique/Crinum/Crinum.xlsx
+++ b/biology/Botanique/Crinum/Crinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crinum, les crinoles, Crinole pyjama, est un genre de plantes à bulbes. Il appartient à la famille des Amaryllidaceae. Son nom vient du grec krinon qui signifie lis.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre dans les régions tropicales ou subtropicales.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grandes fleurs des Crinum leur donnent un intérêt ornemental. Certaines espèces sont médicinales.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 août 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 août 2010) :
 Crinum abyssinicum Hochst. ex A.Rich. (1850)
 Crinum acaule Baker (1897)
 Crinum album (Forssk.) Herb. (1837)
